--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\InzynieriaOprogramowaniaI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5865158F-4418-4549-8F7B-BE23BC3D70C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{31B9EA92-3A76-4C83-9E70-32A216993EF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -49,13 +49,58 @@
   </si>
   <si>
     <t>Lista 2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CollectiveQuestion</t>
+  </si>
+  <si>
+    <t>Lista 3</t>
+  </si>
+  <si>
+    <t>Kartkówka 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +109,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,16 +140,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -112,29 +176,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:N15" totalsRowShown="0">
+  <autoFilter ref="A1:N15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr indeksu"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lista 1"/>
+    <tableColumn id="14" xr3:uid="{26461416-AA69-416E-B781-FC70BEC9719E}" name="CollectiveQuestion"/>
+    <tableColumn id="13" xr3:uid="{A1D0DB12-C78C-4A6D-8894-355EFBBA715D}" name="1">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="a"/>
+    <tableColumn id="2" xr3:uid="{867DC12A-6F72-4BD2-B8F7-0F2857317E04}" name="b"/>
+    <tableColumn id="3" xr3:uid="{66D92701-F0C0-4F88-9183-3A4750A9B3CE}" name="c"/>
+    <tableColumn id="5" xr3:uid="{18E5F31D-7D15-43CE-93A2-19CA7EF96386}" name="d"/>
+    <tableColumn id="6" xr3:uid="{EE39590E-7907-4D4B-8A45-02994EDB61FC}" name="e"/>
+    <tableColumn id="7" xr3:uid="{A1DB8590-CFCC-445E-A3FE-1BC2996DC866}" name="f"/>
+    <tableColumn id="8" xr3:uid="{E8961B91-29EB-4430-ACD9-406196D99F38}" name="g"/>
+    <tableColumn id="9" xr3:uid="{FE675264-1A21-44E5-94CB-585724EC9382}" name="h"/>
+    <tableColumn id="10" xr3:uid="{4ACA8F54-3EBE-44BF-AE38-AB2B78CCD179}" name="i"/>
+    <tableColumn id="11" xr3:uid="{B90D568A-0931-416A-8D59-C8CC3CD69C01}" name="j"/>
+    <tableColumn id="12" xr3:uid="{C1DB21E2-F6BB-4B7B-8A36-2935182C289B}" name="SUMA" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:G31" totalsRowShown="0">
-  <autoFilter ref="A17:G31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:I31" totalsRowShown="0">
+  <autoFilter ref="A17:I31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nr indeksu"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Lista 1"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Kartkówki"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Lab 1"/>
     <tableColumn id="2" xr3:uid="{4F86A611-CAF9-444A-8072-76F120F53DDE}" name="Lista 2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{B28CCE5B-76CD-42DF-95C4-9E90046DEFE4}" name="Lista 3"/>
+    <tableColumn id="5" xr3:uid="{095EA6F0-6DE1-4A8D-846B-427526512F9B}" name="Kartkówka 3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Propozycja" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Propozycja" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -439,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,85 +534,695 @@
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>152205</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.25</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>6.3125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>152210</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152200</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152208</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>152181</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>6.8125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>152206</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>152204</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152197</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152180</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>152189</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>152260</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>152193</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>4.4375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>152192</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>4.0625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>152203</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -547,13 +1239,19 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>152205</v>
       </c>
@@ -570,15 +1268,21 @@
         <v>8.75</v>
       </c>
       <c r="F18">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8984375</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>6.3125</v>
+      </c>
+      <c r="H18">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.87656250000000002</v>
+      </c>
+      <c r="I18">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>152210</v>
       </c>
@@ -595,234 +1299,294 @@
         <v>7.5</v>
       </c>
       <c r="F19">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.796875</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>6.875</v>
+      </c>
+      <c r="H19">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.80937499999999996</v>
+      </c>
+      <c r="I19">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>152200</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>5.25</v>
+      </c>
+      <c r="D20">
+        <v>1.25</v>
+      </c>
+      <c r="E20">
+        <v>10.25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="I20">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>152208</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1.25</v>
+      </c>
+      <c r="E21">
+        <v>7.5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6.0625</v>
+      </c>
+      <c r="H21">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.8203125</v>
+      </c>
+      <c r="I21">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>152181</v>
+      </c>
+      <c r="B22">
+        <v>9.5</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6.8125</v>
+      </c>
+      <c r="H22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.90781250000000002</v>
+      </c>
+      <c r="I22">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>152206</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5.75</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H23">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.34125</v>
+      </c>
+      <c r="I23">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>152204</v>
+      </c>
+      <c r="B24">
+        <v>8.01</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>5.5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>6.25</v>
+      </c>
+      <c r="H24">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.76899999999999991</v>
+      </c>
+      <c r="I24">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>152200</v>
-      </c>
-      <c r="B20">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>152197</v>
+      </c>
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+      <c r="E25">
+        <v>8.75</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3.625</v>
+      </c>
+      <c r="H25">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.796875</v>
+      </c>
+      <c r="I25">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>152180</v>
+      </c>
+      <c r="B26">
+        <v>10.5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1.25</v>
+      </c>
+      <c r="E26">
+        <v>7.25</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>5.25</v>
       </c>
-      <c r="D20">
-        <v>1.25</v>
-      </c>
-      <c r="E20">
-        <v>10.25</v>
-      </c>
-      <c r="F20">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8984375</v>
-      </c>
-      <c r="G20">
+      <c r="H26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="I26">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>152189</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2.25</v>
+      </c>
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>3.75</v>
+      </c>
+      <c r="H27">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I27">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>152260</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1.5</v>
+      </c>
+      <c r="E28">
+        <v>6.5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>7.625</v>
+      </c>
+      <c r="H28">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.86562499999999998</v>
+      </c>
+      <c r="I28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>152208</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>1.25</v>
-      </c>
-      <c r="E21">
-        <v>7.5</v>
-      </c>
-      <c r="F21">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8359375</v>
-      </c>
-      <c r="G21">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>152181</v>
-      </c>
-      <c r="B22">
-        <v>9.5</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.921875</v>
-      </c>
-      <c r="G22">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>152206</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>5.75</v>
-      </c>
-      <c r="F23">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.2734375</v>
-      </c>
-      <c r="G23">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>152204</v>
-      </c>
-      <c r="B24">
-        <v>8.01</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>5.5</v>
-      </c>
-      <c r="F24">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.76593749999999994</v>
-      </c>
-      <c r="G24">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>152197</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>1.5</v>
-      </c>
-      <c r="E25">
-        <v>8.75</v>
-      </c>
-      <c r="F25">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8828125</v>
-      </c>
-      <c r="G25">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>152180</v>
-      </c>
-      <c r="B26">
-        <v>10.5</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1.25</v>
-      </c>
-      <c r="E26">
-        <v>7.25</v>
-      </c>
-      <c r="F26">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.78125</v>
-      </c>
-      <c r="G26">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>152189</v>
-      </c>
-      <c r="B27">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>2.25</v>
-      </c>
-      <c r="E27">
-        <v>7.5</v>
-      </c>
-      <c r="F27">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8359375</v>
-      </c>
-      <c r="G27">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>152260</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1.5</v>
-      </c>
-      <c r="E28">
-        <v>6.5</v>
-      </c>
-      <c r="F28">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.84375</v>
-      </c>
-      <c r="G28">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>152193</v>
       </c>
@@ -839,15 +1603,21 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.71875</v>
+        <v>0</v>
       </c>
       <c r="G29">
+        <v>4.4375</v>
+      </c>
+      <c r="H29">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.68593749999999998</v>
+      </c>
+      <c r="I29">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>152192</v>
       </c>
@@ -864,15 +1634,21 @@
         <v>6.75</v>
       </c>
       <c r="F30">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.7421875</v>
+        <v>0</v>
       </c>
       <c r="G30">
+        <v>4.0625</v>
+      </c>
+      <c r="H30">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.6953125</v>
+      </c>
+      <c r="I30">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>152203</v>
       </c>
@@ -889,10 +1665,16 @@
         <v>8.75</v>
       </c>
       <c r="F31">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 2]])/$B$33</f>
-        <v>0.8671875</v>
+        <v>0</v>
       </c>
       <c r="G31">
+        <v>5.125</v>
+      </c>
+      <c r="H31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
+        <v>0.82187500000000002</v>
+      </c>
+      <c r="I31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
@@ -902,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\InzynieriaOprogramowaniaI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{31B9EA92-3A76-4C83-9E70-32A216993EF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F91C759-78BB-4279-AED5-D0890BC1FEDA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -51,56 +51,47 @@
     <t>Lista 2</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>SUMA</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CollectiveQuestion</t>
-  </si>
-  <si>
     <t>Lista 3</t>
   </si>
   <si>
     <t>Kartkówka 3</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Oceniam inne zadanie</t>
+  </si>
+  <si>
+    <t>Niewspółbieżny singleton</t>
+  </si>
+  <si>
+    <t>Lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +108,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +135,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,15 +157,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
@@ -176,26 +200,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:N15" totalsRowShown="0">
-  <autoFilter ref="A1:N15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr indeksu"/>
-    <tableColumn id="14" xr3:uid="{26461416-AA69-416E-B781-FC70BEC9719E}" name="CollectiveQuestion"/>
-    <tableColumn id="13" xr3:uid="{A1D0DB12-C78C-4A6D-8894-355EFBBA715D}" name="1">
-      <calculatedColumnFormula>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="a"/>
-    <tableColumn id="2" xr3:uid="{867DC12A-6F72-4BD2-B8F7-0F2857317E04}" name="b"/>
-    <tableColumn id="3" xr3:uid="{66D92701-F0C0-4F88-9183-3A4750A9B3CE}" name="c"/>
-    <tableColumn id="5" xr3:uid="{18E5F31D-7D15-43CE-93A2-19CA7EF96386}" name="d"/>
-    <tableColumn id="6" xr3:uid="{EE39590E-7907-4D4B-8A45-02994EDB61FC}" name="e"/>
-    <tableColumn id="7" xr3:uid="{A1DB8590-CFCC-445E-A3FE-1BC2996DC866}" name="f"/>
-    <tableColumn id="8" xr3:uid="{E8961B91-29EB-4430-ACD9-406196D99F38}" name="g"/>
-    <tableColumn id="9" xr3:uid="{FE675264-1A21-44E5-94CB-585724EC9382}" name="h"/>
-    <tableColumn id="10" xr3:uid="{4ACA8F54-3EBE-44BF-AE38-AB2B78CCD179}" name="i"/>
-    <tableColumn id="11" xr3:uid="{B90D568A-0931-416A-8D59-C8CC3CD69C01}" name="j"/>
+    <tableColumn id="6" xr3:uid="{A80D48B1-7E05-48D6-8D87-F179E3965A87}" name="Lista"/>
+    <tableColumn id="14" xr3:uid="{26461416-AA69-416E-B781-FC70BEC9719E}" name="1.1"/>
+    <tableColumn id="13" xr3:uid="{A1D0DB12-C78C-4A6D-8894-355EFBBA715D}" name="1.2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1.3"/>
+    <tableColumn id="2" xr3:uid="{867DC12A-6F72-4BD2-B8F7-0F2857317E04}" name="2.1"/>
+    <tableColumn id="3" xr3:uid="{66D92701-F0C0-4F88-9183-3A4750A9B3CE}" name="2.2"/>
+    <tableColumn id="5" xr3:uid="{18E5F31D-7D15-43CE-93A2-19CA7EF96386}" name="2.3"/>
     <tableColumn id="12" xr3:uid="{C1DB21E2-F6BB-4B7B-8A36-2935182C289B}" name="SUMA" dataDxfId="2">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -521,705 +538,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="13" width="17" customWidth="1"/>
+    <col min="2" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>152205</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-      <c r="K2">
-        <v>0.25</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>6.3125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>152210</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152200</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152208</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>6.0625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>152181</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.75</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>6.8125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>152206</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>152204</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152197</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152180</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>0.5</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
-      <c r="N10">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>152189</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
         <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>152260</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>7.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>152193</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
         <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.5</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>152192</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>0</v>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>152203</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15">
-        <f>IF(Tabela1[[#This Row],[CollectiveQuestion]] = MAX(Tabela1[CollectiveQuestion]),1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>SUM(Tabela1[[#This Row],[a]:[b]])*0.5 + SUM(Tabela1[[#This Row],[c]:[j]])*0.75 + Tabela1[[#This Row],[1]]</f>
-        <v>5.125</v>
+        <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1239,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1268,18 +1054,18 @@
         <v>8.75</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>6.3125</v>
       </c>
       <c r="H18">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.87656250000000002</v>
+        <v>0.75120192307692313</v>
       </c>
       <c r="I18">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1306,11 +1092,11 @@
       </c>
       <c r="H19">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.80937499999999996</v>
+        <v>0.62259615384615385</v>
       </c>
       <c r="I19">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1337,11 +1123,11 @@
       </c>
       <c r="H20">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.89375000000000004</v>
+        <v>0.6875</v>
       </c>
       <c r="I20">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1368,11 +1154,11 @@
       </c>
       <c r="H21">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.8203125</v>
+        <v>0.63100961538461542</v>
       </c>
       <c r="I21">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1399,11 +1185,11 @@
       </c>
       <c r="H22">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.90781250000000002</v>
+        <v>0.69831730769230771</v>
       </c>
       <c r="I22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1417,14 +1203,14 @@
         <v>5.75</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="G23">
         <v>4.9000000000000004</v>
       </c>
       <c r="H23">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.34125</v>
+        <v>0.40769230769230774</v>
       </c>
       <c r="I23">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1455,11 +1241,11 @@
       </c>
       <c r="H24">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.76899999999999991</v>
+        <v>0.59153846153846146</v>
       </c>
       <c r="I24">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1486,11 +1272,11 @@
       </c>
       <c r="H25">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.796875</v>
+        <v>0.61298076923076927</v>
       </c>
       <c r="I25">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1510,14 +1296,14 @@
         <v>7.25</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G26">
         <v>5.25</v>
       </c>
       <c r="H26">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.75624999999999998</v>
+        <v>0.76057692307692304</v>
       </c>
       <c r="I26">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1541,14 +1327,14 @@
         <v>7.5</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="G27">
         <v>3.75</v>
       </c>
       <c r="H27">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.76249999999999996</v>
+        <v>0.73653846153846148</v>
       </c>
       <c r="I27">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1572,14 +1358,14 @@
         <v>6.5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G28">
         <v>7.625</v>
       </c>
       <c r="H28">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.86562499999999998</v>
+        <v>0.80528846153846156</v>
       </c>
       <c r="I28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1603,14 +1389,14 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G29">
         <v>4.4375</v>
       </c>
       <c r="H29">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.68593749999999998</v>
+        <v>0.609375</v>
       </c>
       <c r="I29">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1634,14 +1420,14 @@
         <v>6.75</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>4.0625</v>
       </c>
       <c r="H30">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.6953125</v>
+        <v>0.61177884615384615</v>
       </c>
       <c r="I30">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1665,14 +1451,14 @@
         <v>8.75</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>5.125</v>
       </c>
       <c r="H31">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.82187500000000002</v>
+        <v>0.84375</v>
       </c>
       <c r="I31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
@@ -1684,14 +1470,15 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\InzynieriaOprogramowaniaI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F91C759-78BB-4279-AED5-D0890BC1FEDA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A1DA4AAA-7629-4B6C-8028-F368BF63D8B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -78,20 +78,26 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>Oceniam inne zadanie</t>
-  </si>
-  <si>
     <t>Niewspółbieżny singleton</t>
   </si>
   <si>
     <t>Lista</t>
+  </si>
+  <si>
+    <t>Oceniam inne zadanie: któryś z  diagramów jest "o poziom wyżej" np.. W kontekstowym są data storage albo nadmierna liczba procesów/aktorów na diagramie systemu</t>
+  </si>
+  <si>
+    <t>Solution_1.Equals(Solution_2)</t>
+  </si>
+  <si>
+    <t>… w zasadzie duża częśc 2.2 i 2.3  też</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +130,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +161,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,21 +175,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
     <cellStyle name="Dobry" xfId="2" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -538,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,16 +586,17 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="13" width="17" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="12" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -582,24 +620,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>152205</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -609,106 +647,112 @@
       </c>
       <c r="I2">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>152210</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C3" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152200</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152208</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="C5" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>152181</v>
       </c>
@@ -724,21 +768,21 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>152206</v>
       </c>
@@ -768,7 +812,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>152204</v>
       </c>
@@ -776,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -784,8 +828,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -795,10 +839,10 @@
       </c>
       <c r="I8">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152197</v>
       </c>
@@ -806,29 +850,29 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f>SUM(Tabela1[[#This Row],[1.1]:[2.3]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152180</v>
       </c>
@@ -858,7 +902,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>152189</v>
       </c>
@@ -888,7 +932,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>152260</v>
       </c>
@@ -918,7 +962,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>152193</v>
       </c>
@@ -948,7 +992,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>152192</v>
       </c>
@@ -978,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>152203</v>
       </c>
@@ -1054,18 +1098,18 @@
         <v>8.75</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>6.3125</v>
       </c>
       <c r="H18">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.75120192307692313</v>
+        <v>0.88581730769230771</v>
       </c>
       <c r="I18">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1085,18 +1129,18 @@
         <v>7.5</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G19">
         <v>6.875</v>
       </c>
       <c r="H19">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.62259615384615385</v>
+        <v>0.76201923076923073</v>
       </c>
       <c r="I19">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1116,18 +1160,18 @@
         <v>10.25</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.6875</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="I20">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1147,18 +1191,18 @@
         <v>7.5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G21">
         <v>6.0625</v>
       </c>
       <c r="H21">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.63100961538461542</v>
+        <v>0.77043269230769229</v>
       </c>
       <c r="I21">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1178,18 +1222,18 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>6.8125</v>
       </c>
       <c r="H22">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.69831730769230771</v>
+        <v>0.79447115384615385</v>
       </c>
       <c r="I22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1234,18 +1278,18 @@
         <v>5.5</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>6.25</v>
       </c>
       <c r="H24">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.59153846153846146</v>
+        <v>0.63</v>
       </c>
       <c r="I24">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1265,18 +1309,18 @@
         <v>8.75</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="G25">
         <v>3.625</v>
       </c>
       <c r="H25">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.61298076923076927</v>
+        <v>0.79086538461538458</v>
       </c>
       <c r="I25">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
